--- a/artfynd/A 48800-2024 artfynd.xlsx
+++ b/artfynd/A 48800-2024 artfynd.xlsx
@@ -1466,7 +1466,7 @@
         <v>130669564</v>
       </c>
       <c r="B8" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
